--- a/teaching/traditional_assets/database/data/oman/oman_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/oman/oman_insurance_life.xlsx
@@ -591,40 +591,40 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.1052818149592343</v>
+        <v>0.1018633540372671</v>
       </c>
       <c r="H2">
-        <v>0.1052818149592343</v>
+        <v>0.1018633540372671</v>
       </c>
       <c r="I2">
-        <v>0.09890109890109888</v>
+        <v>0.1577639751552795</v>
       </c>
       <c r="J2">
-        <v>0.08527161884052342</v>
+        <v>0.1366248496305207</v>
       </c>
       <c r="K2">
-        <v>24.4</v>
+        <v>43.8</v>
       </c>
       <c r="L2">
-        <v>0.08649415101028003</v>
+        <v>0.1360248447204969</v>
       </c>
       <c r="M2">
-        <v>13.8</v>
+        <v>17.2</v>
       </c>
       <c r="N2">
-        <v>0.06509433962264151</v>
+        <v>0.07263513513513513</v>
       </c>
       <c r="O2">
-        <v>0.5655737704918034</v>
+        <v>0.3926940639269407</v>
       </c>
       <c r="P2">
-        <v>13.8</v>
+        <v>17.2</v>
       </c>
       <c r="Q2">
-        <v>0.06509433962264151</v>
+        <v>0.07263513513513513</v>
       </c>
       <c r="R2">
-        <v>0.5655737704918034</v>
+        <v>0.3926940639269407</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,31 +633,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>15.1</v>
+        <v>20.6</v>
       </c>
       <c r="V2">
-        <v>0.07122641509433962</v>
+        <v>0.08699324324324324</v>
       </c>
       <c r="W2">
-        <v>0.1794117647058824</v>
+        <v>0.3020689655172414</v>
       </c>
       <c r="X2">
-        <v>0.09414820050707166</v>
+        <v>0.08846408071440458</v>
       </c>
       <c r="Y2">
-        <v>0.08526356419881069</v>
+        <v>0.2136048848028368</v>
       </c>
       <c r="Z2">
-        <v>2.313717449251589</v>
+        <v>2.4788298691301</v>
       </c>
       <c r="AA2">
-        <v>0.1972944324372496</v>
+        <v>0.3386697581295432</v>
       </c>
       <c r="AB2">
-        <v>0.09414820050707166</v>
+        <v>0.08846408071440458</v>
       </c>
       <c r="AC2">
-        <v>0.103146231930178</v>
+        <v>0.2502056774151386</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-15.1</v>
+        <v>-20.6</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.07668867445403758</v>
+        <v>-0.09528214616096208</v>
       </c>
       <c r="AK2">
-        <v>-0.1162432640492687</v>
+        <v>-0.1402314499659632</v>
       </c>
       <c r="AL2">
-        <v>0.107</v>
+        <v>0.291</v>
       </c>
       <c r="AM2">
-        <v>0.107</v>
+        <v>0.291</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>260.7476635514018</v>
+        <v>174.5704467353952</v>
       </c>
       <c r="AP2">
-        <v>-0.4983498349834983</v>
+        <v>-0.3864915572232646</v>
       </c>
       <c r="AQ2">
-        <v>260.7476635514018</v>
+        <v>174.5704467353952</v>
       </c>
     </row>
     <row r="3">
@@ -719,40 +719,40 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.1052818149592343</v>
+        <v>0.1018633540372671</v>
       </c>
       <c r="H3">
-        <v>0.1052818149592343</v>
+        <v>0.1018633540372671</v>
       </c>
       <c r="I3">
-        <v>0.09890109890109888</v>
+        <v>0.1577639751552795</v>
       </c>
       <c r="J3">
-        <v>0.08527161884052342</v>
+        <v>0.1366248496305207</v>
       </c>
       <c r="K3">
-        <v>24.4</v>
+        <v>43.8</v>
       </c>
       <c r="L3">
-        <v>0.08649415101028003</v>
+        <v>0.1360248447204969</v>
       </c>
       <c r="M3">
-        <v>13.8</v>
+        <v>17.2</v>
       </c>
       <c r="N3">
-        <v>0.06509433962264151</v>
+        <v>0.07263513513513513</v>
       </c>
       <c r="O3">
-        <v>0.5655737704918034</v>
+        <v>0.3926940639269407</v>
       </c>
       <c r="P3">
-        <v>13.8</v>
+        <v>17.2</v>
       </c>
       <c r="Q3">
-        <v>0.06509433962264151</v>
+        <v>0.07263513513513513</v>
       </c>
       <c r="R3">
-        <v>0.5655737704918034</v>
+        <v>0.3926940639269407</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,31 +761,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>15.1</v>
+        <v>20.6</v>
       </c>
       <c r="V3">
-        <v>0.07122641509433962</v>
+        <v>0.08699324324324324</v>
       </c>
       <c r="W3">
-        <v>0.1794117647058824</v>
+        <v>0.3020689655172414</v>
       </c>
       <c r="X3">
-        <v>0.09414820050707166</v>
+        <v>0.08846408071440458</v>
       </c>
       <c r="Y3">
-        <v>0.08526356419881069</v>
+        <v>0.2136048848028368</v>
       </c>
       <c r="Z3">
-        <v>2.313717449251589</v>
+        <v>2.4788298691301</v>
       </c>
       <c r="AA3">
-        <v>0.1972944324372496</v>
+        <v>0.3386697581295432</v>
       </c>
       <c r="AB3">
-        <v>0.09414820050707166</v>
+        <v>0.08846408071440458</v>
       </c>
       <c r="AC3">
-        <v>0.103146231930178</v>
+        <v>0.2502056774151386</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-15.1</v>
+        <v>-20.6</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -806,28 +806,28 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.07668867445403758</v>
+        <v>-0.09528214616096208</v>
       </c>
       <c r="AK3">
-        <v>-0.1162432640492687</v>
+        <v>-0.1402314499659632</v>
       </c>
       <c r="AL3">
-        <v>0.107</v>
+        <v>0.291</v>
       </c>
       <c r="AM3">
-        <v>0.107</v>
+        <v>0.291</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>260.7476635514018</v>
+        <v>174.5704467353952</v>
       </c>
       <c r="AP3">
-        <v>-0.4983498349834983</v>
+        <v>-0.3864915572232646</v>
       </c>
       <c r="AQ3">
-        <v>260.7476635514018</v>
+        <v>174.5704467353952</v>
       </c>
     </row>
   </sheetData>
